--- a/testCase/createUnitForSSP/createUnitTest.xlsx
+++ b/testCase/createUnitForSSP/createUnitTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FocusmediaAutotest.git\trunk\testCase\createUnit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FocusmediaAutotest.git\trunk\testCase\createUnitForSSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>adCampaignId</t>
   </si>
@@ -30,12 +30,6 @@
     <t>frequency</t>
   </si>
   <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
     <t>adUnitType</t>
   </si>
   <si>
@@ -78,48 +72,83 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>GUARANTEED</t>
+  </si>
+  <si>
+    <t>186073_118327</t>
+  </si>
+  <si>
+    <t>110000000000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>110000000000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>null</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>GUARANTEED</t>
-  </si>
-  <si>
-    <t>192148_118015</t>
-  </si>
-  <si>
-    <t>310000000000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-10-29</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCATION</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>80273,3035780</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CANDIDATE_NON_PREEMPTIVE</t>
+    <t>SUIT</t>
+  </si>
+  <si>
+    <t>EA300101</t>
+  </si>
+  <si>
+    <t>单个套装</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>110000000000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA300102</t>
+  </si>
+  <si>
+    <t>EA300103</t>
+  </si>
+  <si>
+    <t>186073_118327</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>191738_118167</t>
+  </si>
+  <si>
+    <t>110000000000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANDIDATE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>86fb9ce3e28d4d599e68b3fab4b69be6</t>
+  </si>
+  <si>
+    <t>EA300164</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +305,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -285,25 +322,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +503,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -599,8 +625,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,15 +768,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -747,23 +782,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -789,7 +833,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1084,174 +1127,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19.36328125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="20" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.36328125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.36328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>300</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>300</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>300</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9">
+        <v>300</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>300</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2">
+      <c r="H5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>300</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2</v>
+      <c r="N5" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="/launchmanage/adcampaign/info/ka/192148_118015" display="https://ad-preonline.fmtest.tech/ - /launchmanage/adcampaign/info/ka/192148_118015"/>
-    <hyperlink ref="A3" r:id="rId2" location="/launchmanage/adcampaign/info/ka/192148_118015" display="https://ad-preonline.fmtest.tech/ - /launchmanage/adcampaign/info/ka/192148_118015"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>